--- a/lab4/graphs.xlsx
+++ b/lab4/graphs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DC7D2B35-5E12-458E-B491-C10E79457A03}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4E375554-9D44-4E3B-A354-AD754A988C04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,6 +169,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,8 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,304 +294,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900</c:v>
+                  <c:v>29000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3100</c:v>
+                  <c:v>31000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3200</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3300</c:v>
+                  <c:v>33000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3400</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3500</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3600</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3700</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3800</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3900</c:v>
+                  <c:v>39000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4100</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4200</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4300</c:v>
+                  <c:v>43000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4400</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4500</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4600</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4700</c:v>
+                  <c:v>47000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4800</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4900</c:v>
+                  <c:v>49000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5100</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5200</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5300</c:v>
+                  <c:v>53000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5400</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5500</c:v>
+                  <c:v>55000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5700</c:v>
+                  <c:v>57000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5800</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5900</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6100</c:v>
+                  <c:v>61000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6200</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6300</c:v>
+                  <c:v>63000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6400</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6500</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6600</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6700</c:v>
+                  <c:v>67000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6800</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6900</c:v>
+                  <c:v>69000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7100</c:v>
+                  <c:v>71000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7200</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7300</c:v>
+                  <c:v>73000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7400</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7500</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7600</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7700</c:v>
+                  <c:v>77000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7800</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7900</c:v>
+                  <c:v>79000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8100</c:v>
+                  <c:v>81000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8200</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8300</c:v>
+                  <c:v>83000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8400</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8500</c:v>
+                  <c:v>85000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8600</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8700</c:v>
+                  <c:v>87000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8800</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8900</c:v>
+                  <c:v>89000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9100</c:v>
+                  <c:v>91000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9200</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9300</c:v>
+                  <c:v>93000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9400</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9500</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9600</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9700</c:v>
+                  <c:v>97000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9800</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9900</c:v>
+                  <c:v>99000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,304 +603,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>6739</c:v>
+                  <c:v>8486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154</c:v>
+                  <c:v>11703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>845</c:v>
+                  <c:v>8250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5596</c:v>
+                  <c:v>2112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>922</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5750</c:v>
+                  <c:v>2859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2336</c:v>
+                  <c:v>1627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>321</c:v>
+                  <c:v>1932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>267</c:v>
+                  <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>299</c:v>
+                  <c:v>2168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>520</c:v>
+                  <c:v>2363</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1363</c:v>
+                  <c:v>4340</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>336</c:v>
+                  <c:v>4147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>322</c:v>
+                  <c:v>3065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>225</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5816</c:v>
+                  <c:v>3337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>898</c:v>
+                  <c:v>3362</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>575</c:v>
+                  <c:v>3692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>910</c:v>
+                  <c:v>3822</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>322</c:v>
+                  <c:v>5693</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>413</c:v>
+                  <c:v>6149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>353</c:v>
+                  <c:v>4422</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>766</c:v>
+                  <c:v>4699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>581</c:v>
+                  <c:v>7273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>380</c:v>
+                  <c:v>5425</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>346</c:v>
+                  <c:v>7802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345</c:v>
+                  <c:v>5587</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>386</c:v>
+                  <c:v>5613</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>493</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>374</c:v>
+                  <c:v>6885</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>383</c:v>
+                  <c:v>9942</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>399</c:v>
+                  <c:v>7630</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>403</c:v>
+                  <c:v>9037</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>413</c:v>
+                  <c:v>6753</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>451</c:v>
+                  <c:v>9059</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>754</c:v>
+                  <c:v>11667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1315</c:v>
+                  <c:v>7902</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1367</c:v>
+                  <c:v>8540</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2033</c:v>
+                  <c:v>8153</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2112</c:v>
+                  <c:v>14272</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1576</c:v>
+                  <c:v>14092</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2185</c:v>
+                  <c:v>10360</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1247</c:v>
+                  <c:v>9770</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5079</c:v>
+                  <c:v>14479</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>877</c:v>
+                  <c:v>9655</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>763</c:v>
+                  <c:v>11164</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>649</c:v>
+                  <c:v>10839</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>913</c:v>
+                  <c:v>9935</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>828</c:v>
+                  <c:v>9535</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>634</c:v>
+                  <c:v>16148</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>658</c:v>
+                  <c:v>16267</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>839</c:v>
+                  <c:v>13085</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>661</c:v>
+                  <c:v>15068</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>684</c:v>
+                  <c:v>13363</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>691</c:v>
+                  <c:v>13155</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>854</c:v>
+                  <c:v>13982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1336</c:v>
+                  <c:v>13260</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>895</c:v>
+                  <c:v>15835</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1411</c:v>
+                  <c:v>13394</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1287</c:v>
+                  <c:v>21219</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>649</c:v>
+                  <c:v>24561</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1077</c:v>
+                  <c:v>24818</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>899</c:v>
+                  <c:v>21348</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>700</c:v>
+                  <c:v>28267</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1054</c:v>
+                  <c:v>20679</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>819</c:v>
+                  <c:v>21266</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>776</c:v>
+                  <c:v>20752</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>750</c:v>
+                  <c:v>20845</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>961</c:v>
+                  <c:v>21953</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>911</c:v>
+                  <c:v>26507</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1010</c:v>
+                  <c:v>26497</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>934</c:v>
+                  <c:v>27513</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>805</c:v>
+                  <c:v>27043</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>816</c:v>
+                  <c:v>27243</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2290</c:v>
+                  <c:v>27390</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1773</c:v>
+                  <c:v>27499</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>812</c:v>
+                  <c:v>27990</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1152</c:v>
+                  <c:v>27956</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1087</c:v>
+                  <c:v>28234</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1702</c:v>
+                  <c:v>32429</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1073</c:v>
+                  <c:v>32913</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>905</c:v>
+                  <c:v>33902</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>958</c:v>
+                  <c:v>31371</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1179</c:v>
+                  <c:v>31382</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2506</c:v>
+                  <c:v>31197</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1737</c:v>
+                  <c:v>31569</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1271</c:v>
+                  <c:v>31872</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1267</c:v>
+                  <c:v>33740</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>915</c:v>
+                  <c:v>34303</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1225</c:v>
+                  <c:v>42131</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1002</c:v>
+                  <c:v>41329</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>976</c:v>
+                  <c:v>35067</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1042</c:v>
+                  <c:v>40041</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1602</c:v>
+                  <c:v>44710</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2664</c:v>
+                  <c:v>51149</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1863</c:v>
+                  <c:v>55312</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2081</c:v>
+                  <c:v>52549</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5291</c:v>
+                  <c:v>36199</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1694</c:v>
+                  <c:v>40789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,308 +1185,305 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:f>Sheet1!$C$3:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3100</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3200</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3300</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3400</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3500</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3600</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3700</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3800</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3900</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4000</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4100</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4200</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4300</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4400</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4500</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4600</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4700</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4800</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4900</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5000</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5100</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5200</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5300</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5400</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5500</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5700</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5800</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5900</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6000</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6100</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6200</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6300</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6400</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6500</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6600</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6700</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6800</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6900</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7000</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7100</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7200</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7300</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7400</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7500</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7600</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7700</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7800</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7900</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8000</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8100</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8200</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8300</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8400</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8500</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8600</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8700</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8800</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9000</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9100</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9200</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9300</c:v>
+                  <c:v>9400</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9400</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9500</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9600</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9700</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9800</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9900</c:v>
-                </c:pt>
-                <c:pt idx="99">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1494,309 +1491,306 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:f>Sheet1!$D$3:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>19954</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>405</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1353</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>527</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>466</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>490</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>658</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>524</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>301</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>318</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>383</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>113</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>445</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>245</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>390</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>215</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="64">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3863</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="82">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="86">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>178</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>871</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>294</c:v>
-                </c:pt>
                 <c:pt idx="95">
-                  <c:v>2134</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>200</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>177</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>177</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,10 +2065,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2164,525 +2158,105 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:f>Sheet1!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1215</c:v>
+                  <c:v>2335156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1438</c:v>
+                  <c:v>1764436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3257</c:v>
+                  <c:v>1308711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4744</c:v>
+                  <c:v>1022811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8790</c:v>
+                  <c:v>934322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7702</c:v>
+                  <c:v>875407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12286</c:v>
+                  <c:v>804825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11420</c:v>
+                  <c:v>716243</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13853</c:v>
+                  <c:v>766923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6808</c:v>
+                  <c:v>767711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1414</c:v>
+                  <c:v>704404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1576</c:v>
+                  <c:v>733757</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3807</c:v>
+                  <c:v>729959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3513</c:v>
+                  <c:v>776543</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3896</c:v>
+                  <c:v>697671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4436</c:v>
+                  <c:v>703542</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5257</c:v>
+                  <c:v>711989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4239</c:v>
+                  <c:v>701092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3474</c:v>
+                  <c:v>716073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2853</c:v>
+                  <c:v>679976</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5970</c:v>
+                  <c:v>680345</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5786</c:v>
+                  <c:v>683247</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3355</c:v>
+                  <c:v>699380</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6118</c:v>
+                  <c:v>704667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6911</c:v>
+                  <c:v>712215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4053</c:v>
+                  <c:v>725007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17649</c:v>
+                  <c:v>748431</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6442</c:v>
+                  <c:v>710202</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4819</c:v>
+                  <c:v>750385</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3689</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6080</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5477</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4570</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6853</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6635</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7132</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5332</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6988</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7946</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12097</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6577</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5443</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6426</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6513</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5989</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5782</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5994</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6044</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6611</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6734</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6631</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7423</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7072</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7187</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7104</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7448</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8007</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7791</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7684</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8355</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7717</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8519</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>63</c:v>
+                  <c:v>727526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,2024 +4486,1744 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="2">
-        <v>6739</v>
+        <v>8486</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="2">
-        <v>19954</v>
-      </c>
-      <c r="E2" s="8">
+        <v>8407</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
-        <v>1215</v>
+      <c r="F2" s="6">
+        <v>2335156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="2">
-        <v>154</v>
+        <v>11703</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
       </c>
       <c r="D3" s="2">
-        <v>405</v>
+        <v>196</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>1438</v>
+        <v>1764436</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B4" s="2">
-        <v>103</v>
+        <v>666</v>
       </c>
       <c r="C4" s="1">
         <v>300</v>
       </c>
       <c r="D4" s="2">
-        <v>1353</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>3257</v>
+        <v>1308711</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="B5" s="2">
-        <v>845</v>
+        <v>8250</v>
       </c>
       <c r="C5" s="1">
         <v>400</v>
       </c>
       <c r="D5" s="2">
-        <v>527</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>4744</v>
+        <v>1022811</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B6" s="2">
-        <v>5596</v>
+        <v>2112</v>
       </c>
       <c r="C6" s="1">
         <v>500</v>
       </c>
       <c r="D6" s="2">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>8790</v>
+        <v>934322</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="B7" s="2">
-        <v>922</v>
+        <v>1405</v>
       </c>
       <c r="C7" s="1">
         <v>600</v>
       </c>
       <c r="D7" s="2">
-        <v>490</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>7702</v>
+        <v>875407</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="B8" s="2">
-        <v>5750</v>
+        <v>2859</v>
       </c>
       <c r="C8" s="1">
         <v>700</v>
       </c>
       <c r="D8" s="2">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
       <c r="F8" s="2">
-        <v>12286</v>
+        <v>804825</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="B9" s="2">
-        <v>2336</v>
+        <v>1627</v>
       </c>
       <c r="C9" s="1">
         <v>800</v>
       </c>
       <c r="D9" s="2">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
       <c r="F9" s="2">
-        <v>11420</v>
+        <v>716243</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>900</v>
+        <v>9000</v>
       </c>
       <c r="B10" s="2">
-        <v>321</v>
+        <v>1932</v>
       </c>
       <c r="C10" s="1">
         <v>900</v>
       </c>
       <c r="D10" s="2">
-        <v>658</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>13853</v>
+        <v>766923</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B11" s="2">
-        <v>267</v>
+        <v>1966</v>
       </c>
       <c r="C11" s="1">
         <v>1000</v>
       </c>
       <c r="D11" s="2">
-        <v>524</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="2">
-        <v>6808</v>
+        <v>767711</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1100</v>
+        <v>11000</v>
       </c>
       <c r="B12" s="2">
-        <v>299</v>
+        <v>2168</v>
       </c>
       <c r="C12" s="1">
         <v>1100</v>
       </c>
       <c r="D12" s="2">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
       </c>
       <c r="F12" s="2">
-        <v>1414</v>
+        <v>704404</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="B13" s="2">
-        <v>520</v>
+        <v>2363</v>
       </c>
       <c r="C13" s="1">
         <v>1200</v>
       </c>
       <c r="D13" s="2">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>1576</v>
+        <v>733757</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="B14" s="2">
-        <v>1363</v>
+        <v>4340</v>
       </c>
       <c r="C14" s="1">
         <v>1300</v>
       </c>
       <c r="D14" s="2">
-        <v>383</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
       </c>
       <c r="F14" s="2">
-        <v>3807</v>
+        <v>729959</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1400</v>
+        <v>14000</v>
       </c>
       <c r="B15" s="2">
-        <v>336</v>
+        <v>4147</v>
       </c>
       <c r="C15" s="1">
         <v>1400</v>
       </c>
       <c r="D15" s="2">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
       </c>
       <c r="F15" s="2">
-        <v>3513</v>
+        <v>776543</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="B16" s="2">
-        <v>322</v>
+        <v>3065</v>
       </c>
       <c r="C16" s="1">
         <v>1500</v>
       </c>
       <c r="D16" s="2">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
       </c>
       <c r="F16" s="2">
-        <v>3896</v>
+        <v>697671</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1600</v>
+        <v>16000</v>
       </c>
       <c r="B17" s="2">
-        <v>225</v>
+        <v>2970</v>
       </c>
       <c r="C17" s="1">
         <v>1600</v>
       </c>
       <c r="D17" s="2">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
       </c>
       <c r="F17" s="2">
-        <v>4436</v>
+        <v>703542</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1700</v>
+        <v>17000</v>
       </c>
       <c r="B18" s="2">
-        <v>5816</v>
+        <v>3337</v>
       </c>
       <c r="C18" s="1">
         <v>1700</v>
       </c>
       <c r="D18" s="2">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1">
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>5257</v>
+        <v>711989</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1800</v>
+        <v>18000</v>
       </c>
       <c r="B19" s="2">
-        <v>898</v>
+        <v>3362</v>
       </c>
       <c r="C19" s="1">
         <v>1800</v>
       </c>
       <c r="D19" s="2">
-        <v>390</v>
+        <v>173</v>
       </c>
       <c r="E19" s="1">
         <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>4239</v>
+        <v>701092</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="B20" s="2">
-        <v>575</v>
+        <v>3692</v>
       </c>
       <c r="C20" s="1">
         <v>1900</v>
       </c>
       <c r="D20" s="2">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1">
         <v>19</v>
       </c>
       <c r="F20" s="2">
-        <v>3474</v>
+        <v>716073</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="B21" s="2">
-        <v>910</v>
+        <v>3822</v>
       </c>
       <c r="C21" s="1">
         <v>2000</v>
       </c>
       <c r="D21" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E21" s="1">
         <v>20</v>
       </c>
       <c r="F21" s="2">
-        <v>2853</v>
+        <v>679976</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2100</v>
+        <v>21000</v>
       </c>
       <c r="B22" s="2">
-        <v>322</v>
+        <v>5693</v>
       </c>
       <c r="C22" s="1">
         <v>2100</v>
       </c>
       <c r="D22" s="2">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E22" s="1">
         <v>21</v>
       </c>
       <c r="F22" s="2">
-        <v>5970</v>
+        <v>680345</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2200</v>
+        <v>22000</v>
       </c>
       <c r="B23" s="2">
-        <v>413</v>
+        <v>6149</v>
       </c>
       <c r="C23" s="1">
         <v>2200</v>
       </c>
       <c r="D23" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1">
         <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>5786</v>
+        <v>683247</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2300</v>
+        <v>23000</v>
       </c>
       <c r="B24" s="2">
-        <v>353</v>
+        <v>4422</v>
       </c>
       <c r="C24" s="1">
         <v>2300</v>
       </c>
       <c r="D24" s="2">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1">
         <v>23</v>
       </c>
       <c r="F24" s="2">
-        <v>3355</v>
+        <v>699380</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="B25" s="2">
-        <v>766</v>
+        <v>4699</v>
       </c>
       <c r="C25" s="1">
         <v>2400</v>
       </c>
       <c r="D25" s="2">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1">
         <v>24</v>
       </c>
       <c r="F25" s="2">
-        <v>6118</v>
+        <v>704667</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="B26" s="2">
-        <v>581</v>
+        <v>7273</v>
       </c>
       <c r="C26" s="1">
         <v>2500</v>
       </c>
       <c r="D26" s="2">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E26" s="1">
         <v>25</v>
       </c>
       <c r="F26" s="2">
-        <v>6911</v>
+        <v>712215</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2600</v>
+        <v>26000</v>
       </c>
       <c r="B27" s="2">
-        <v>380</v>
+        <v>5425</v>
       </c>
       <c r="C27" s="1">
         <v>2600</v>
       </c>
       <c r="D27" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E27" s="1">
         <v>26</v>
       </c>
       <c r="F27" s="2">
-        <v>4053</v>
+        <v>725007</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2700</v>
+        <v>27000</v>
       </c>
       <c r="B28" s="2">
-        <v>346</v>
+        <v>7802</v>
       </c>
       <c r="C28" s="1">
         <v>2700</v>
       </c>
       <c r="D28" s="2">
-        <v>325</v>
+        <v>158</v>
       </c>
       <c r="E28" s="1">
         <v>27</v>
       </c>
       <c r="F28" s="2">
-        <v>17649</v>
+        <v>748431</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2800</v>
+        <v>28000</v>
       </c>
       <c r="B29" s="2">
-        <v>345</v>
+        <v>5587</v>
       </c>
       <c r="C29" s="1">
         <v>2800</v>
       </c>
       <c r="D29" s="2">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1">
         <v>28</v>
       </c>
       <c r="F29" s="2">
-        <v>6442</v>
+        <v>710202</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2900</v>
+        <v>29000</v>
       </c>
       <c r="B30" s="2">
-        <v>386</v>
+        <v>5613</v>
       </c>
       <c r="C30" s="1">
         <v>2900</v>
       </c>
       <c r="D30" s="2">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1">
         <v>29</v>
       </c>
       <c r="F30" s="2">
-        <v>4819</v>
+        <v>750385</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="B31" s="2">
-        <v>493</v>
+        <v>5655</v>
       </c>
       <c r="C31" s="1">
         <v>3000</v>
       </c>
       <c r="D31" s="2">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="E31" s="1">
         <v>30</v>
       </c>
       <c r="F31" s="2">
-        <v>3689</v>
+        <v>727526</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3100</v>
+        <v>31000</v>
       </c>
       <c r="B32" s="2">
-        <v>374</v>
+        <v>6885</v>
       </c>
       <c r="C32" s="1">
         <v>3100</v>
       </c>
       <c r="D32" s="2">
-        <v>176</v>
-      </c>
-      <c r="E32" s="1">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2">
-        <v>6080</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3200</v>
+        <v>32000</v>
       </c>
       <c r="B33" s="2">
-        <v>383</v>
+        <v>9942</v>
       </c>
       <c r="C33" s="1">
         <v>3200</v>
       </c>
       <c r="D33" s="2">
-        <v>189</v>
-      </c>
-      <c r="E33" s="1">
-        <v>32</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5477</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3300</v>
+        <v>33000</v>
       </c>
       <c r="B34" s="2">
-        <v>399</v>
+        <v>7630</v>
       </c>
       <c r="C34" s="1">
         <v>3300</v>
       </c>
       <c r="D34" s="2">
-        <v>98</v>
-      </c>
-      <c r="E34" s="1">
-        <v>33</v>
-      </c>
-      <c r="F34" s="2">
-        <v>4570</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3400</v>
+        <v>34000</v>
       </c>
       <c r="B35" s="2">
-        <v>403</v>
+        <v>9037</v>
       </c>
       <c r="C35" s="1">
         <v>3400</v>
       </c>
       <c r="D35" s="2">
-        <v>129</v>
-      </c>
-      <c r="E35" s="1">
-        <v>34</v>
-      </c>
-      <c r="F35" s="2">
-        <v>6853</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3500</v>
+        <v>35000</v>
       </c>
       <c r="B36" s="2">
-        <v>413</v>
+        <v>6753</v>
       </c>
       <c r="C36" s="1">
         <v>3500</v>
       </c>
       <c r="D36" s="2">
-        <v>185</v>
-      </c>
-      <c r="E36" s="1">
-        <v>35</v>
-      </c>
-      <c r="F36" s="2">
-        <v>6635</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3600</v>
+        <v>36000</v>
       </c>
       <c r="B37" s="2">
-        <v>451</v>
+        <v>9059</v>
       </c>
       <c r="C37" s="1">
         <v>3600</v>
       </c>
       <c r="D37" s="2">
-        <v>126</v>
-      </c>
-      <c r="E37" s="1">
-        <v>36</v>
-      </c>
-      <c r="F37" s="2">
-        <v>5600</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3700</v>
+        <v>37000</v>
       </c>
       <c r="B38" s="2">
-        <v>754</v>
+        <v>11667</v>
       </c>
       <c r="C38" s="1">
         <v>3700</v>
       </c>
       <c r="D38" s="2">
-        <v>3863</v>
-      </c>
-      <c r="E38" s="1">
-        <v>37</v>
-      </c>
-      <c r="F38" s="2">
-        <v>7132</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>3800</v>
+        <v>38000</v>
       </c>
       <c r="B39" s="2">
-        <v>1315</v>
+        <v>7902</v>
       </c>
       <c r="C39" s="1">
         <v>3800</v>
       </c>
       <c r="D39" s="2">
-        <v>192</v>
-      </c>
-      <c r="E39" s="1">
-        <v>38</v>
-      </c>
-      <c r="F39" s="2">
-        <v>5332</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3900</v>
+        <v>39000</v>
       </c>
       <c r="B40" s="2">
-        <v>1367</v>
+        <v>8540</v>
       </c>
       <c r="C40" s="1">
         <v>3900</v>
       </c>
       <c r="D40" s="2">
-        <v>179</v>
-      </c>
-      <c r="E40" s="1">
-        <v>39</v>
-      </c>
-      <c r="F40" s="2">
-        <v>6988</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="B41" s="2">
-        <v>2033</v>
+        <v>8153</v>
       </c>
       <c r="C41" s="1">
         <v>4000</v>
       </c>
       <c r="D41" s="2">
-        <v>175</v>
-      </c>
-      <c r="E41" s="1">
-        <v>40</v>
-      </c>
-      <c r="F41" s="2">
-        <v>7946</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>4100</v>
+        <v>41000</v>
       </c>
       <c r="B42" s="2">
-        <v>2112</v>
+        <v>14272</v>
       </c>
       <c r="C42" s="1">
         <v>4100</v>
       </c>
       <c r="D42" s="2">
-        <v>178</v>
-      </c>
-      <c r="E42" s="1">
-        <v>41</v>
-      </c>
-      <c r="F42" s="2">
-        <v>12097</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4200</v>
+        <v>42000</v>
       </c>
       <c r="B43" s="2">
-        <v>1576</v>
+        <v>14092</v>
       </c>
       <c r="C43" s="1">
         <v>4200</v>
       </c>
       <c r="D43" s="2">
-        <v>176</v>
-      </c>
-      <c r="E43" s="1">
-        <v>42</v>
-      </c>
-      <c r="F43" s="2">
-        <v>6577</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4300</v>
+        <v>43000</v>
       </c>
       <c r="B44" s="2">
-        <v>2185</v>
+        <v>10360</v>
       </c>
       <c r="C44" s="1">
         <v>4300</v>
       </c>
       <c r="D44" s="2">
-        <v>871</v>
-      </c>
-      <c r="E44" s="1">
-        <v>43</v>
-      </c>
-      <c r="F44" s="2">
-        <v>5443</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>4400</v>
+        <v>44000</v>
       </c>
       <c r="B45" s="2">
-        <v>1247</v>
+        <v>9770</v>
       </c>
       <c r="C45" s="1">
         <v>4400</v>
       </c>
       <c r="D45" s="2">
-        <v>497</v>
-      </c>
-      <c r="E45" s="1">
-        <v>44</v>
-      </c>
-      <c r="F45" s="2">
-        <v>6426</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>4500</v>
+        <v>45000</v>
       </c>
       <c r="B46" s="2">
-        <v>5079</v>
+        <v>14479</v>
       </c>
       <c r="C46" s="1">
         <v>4500</v>
       </c>
       <c r="D46" s="2">
-        <v>207</v>
-      </c>
-      <c r="E46" s="1">
-        <v>45</v>
-      </c>
-      <c r="F46" s="2">
-        <v>6513</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>4600</v>
+        <v>46000</v>
       </c>
       <c r="B47" s="2">
-        <v>877</v>
+        <v>9655</v>
       </c>
       <c r="C47" s="1">
         <v>4600</v>
       </c>
       <c r="D47" s="2">
-        <v>94</v>
-      </c>
-      <c r="E47" s="1">
-        <v>46</v>
-      </c>
-      <c r="F47" s="2">
-        <v>5989</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4700</v>
+        <v>47000</v>
       </c>
       <c r="B48" s="2">
-        <v>763</v>
+        <v>11164</v>
       </c>
       <c r="C48" s="1">
         <v>4700</v>
       </c>
       <c r="D48" s="2">
-        <v>103</v>
-      </c>
-      <c r="E48" s="1">
-        <v>47</v>
-      </c>
-      <c r="F48" s="2">
-        <v>5782</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4800</v>
+        <v>48000</v>
       </c>
       <c r="B49" s="2">
-        <v>649</v>
+        <v>10839</v>
       </c>
       <c r="C49" s="1">
         <v>4800</v>
       </c>
       <c r="D49" s="2">
-        <v>97</v>
-      </c>
-      <c r="E49" s="1">
-        <v>48</v>
-      </c>
-      <c r="F49" s="2">
-        <v>5994</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>4900</v>
+        <v>49000</v>
       </c>
       <c r="B50" s="2">
-        <v>913</v>
+        <v>9935</v>
       </c>
       <c r="C50" s="1">
         <v>4900</v>
       </c>
       <c r="D50" s="2">
-        <v>99</v>
-      </c>
-      <c r="E50" s="1">
-        <v>49</v>
-      </c>
-      <c r="F50" s="2">
-        <v>6044</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="B51" s="2">
-        <v>828</v>
+        <v>9535</v>
       </c>
       <c r="C51" s="1">
         <v>5000</v>
       </c>
       <c r="D51" s="2">
-        <v>116</v>
-      </c>
-      <c r="E51" s="1">
-        <v>50</v>
-      </c>
-      <c r="F51" s="2">
-        <v>6611</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5100</v>
+        <v>51000</v>
       </c>
       <c r="B52" s="2">
-        <v>634</v>
+        <v>16148</v>
       </c>
       <c r="C52" s="1">
         <v>5100</v>
       </c>
       <c r="D52" s="2">
-        <v>101</v>
-      </c>
-      <c r="E52" s="1">
-        <v>51</v>
-      </c>
-      <c r="F52" s="2">
-        <v>6734</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>5200</v>
+        <v>52000</v>
       </c>
       <c r="B53" s="2">
-        <v>658</v>
+        <v>16267</v>
       </c>
       <c r="C53" s="1">
         <v>5200</v>
       </c>
       <c r="D53" s="2">
-        <v>93</v>
-      </c>
-      <c r="E53" s="1">
-        <v>52</v>
-      </c>
-      <c r="F53" s="2">
-        <v>6631</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5300</v>
+        <v>53000</v>
       </c>
       <c r="B54" s="2">
-        <v>839</v>
+        <v>13085</v>
       </c>
       <c r="C54" s="1">
         <v>5300</v>
       </c>
       <c r="D54" s="2">
-        <v>93</v>
-      </c>
-      <c r="E54" s="1">
-        <v>53</v>
-      </c>
-      <c r="F54" s="2">
-        <v>7423</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5400</v>
+        <v>54000</v>
       </c>
       <c r="B55" s="2">
-        <v>661</v>
+        <v>15068</v>
       </c>
       <c r="C55" s="1">
         <v>5400</v>
       </c>
       <c r="D55" s="2">
-        <v>97</v>
-      </c>
-      <c r="E55" s="1">
-        <v>54</v>
-      </c>
-      <c r="F55" s="2">
-        <v>7072</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5500</v>
+        <v>55000</v>
       </c>
       <c r="B56" s="2">
-        <v>684</v>
+        <v>13363</v>
       </c>
       <c r="C56" s="1">
         <v>5500</v>
       </c>
       <c r="D56" s="2">
-        <v>555</v>
-      </c>
-      <c r="E56" s="1">
-        <v>55</v>
-      </c>
-      <c r="F56" s="2">
-        <v>7187</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5600</v>
+        <v>56000</v>
       </c>
       <c r="B57" s="2">
-        <v>691</v>
+        <v>13155</v>
       </c>
       <c r="C57" s="1">
         <v>5600</v>
       </c>
       <c r="D57" s="2">
-        <v>308</v>
-      </c>
-      <c r="E57" s="1">
-        <v>56</v>
-      </c>
-      <c r="F57" s="2">
-        <v>7104</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5700</v>
+        <v>57000</v>
       </c>
       <c r="B58" s="2">
-        <v>854</v>
+        <v>13982</v>
       </c>
       <c r="C58" s="1">
         <v>5700</v>
       </c>
       <c r="D58" s="2">
-        <v>646</v>
-      </c>
-      <c r="E58" s="1">
-        <v>57</v>
-      </c>
-      <c r="F58" s="2">
-        <v>7448</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5800</v>
+        <v>58000</v>
       </c>
       <c r="B59" s="2">
-        <v>1336</v>
+        <v>13260</v>
       </c>
       <c r="C59" s="1">
         <v>5800</v>
       </c>
       <c r="D59" s="2">
-        <v>97</v>
-      </c>
-      <c r="E59" s="1">
-        <v>58</v>
-      </c>
-      <c r="F59" s="2">
-        <v>8007</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>5900</v>
+        <v>59000</v>
       </c>
       <c r="B60" s="2">
-        <v>895</v>
+        <v>15835</v>
       </c>
       <c r="C60" s="1">
         <v>5900</v>
       </c>
       <c r="D60" s="2">
-        <v>264</v>
-      </c>
-      <c r="E60" s="1">
-        <v>59</v>
-      </c>
-      <c r="F60" s="2">
-        <v>7791</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="B61" s="2">
-        <v>1411</v>
+        <v>13394</v>
       </c>
       <c r="C61" s="1">
         <v>6000</v>
       </c>
       <c r="D61" s="2">
-        <v>712</v>
-      </c>
-      <c r="E61" s="1">
-        <v>60</v>
-      </c>
-      <c r="F61" s="2">
-        <v>8300</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>6100</v>
+        <v>61000</v>
       </c>
       <c r="B62" s="2">
-        <v>1287</v>
+        <v>21219</v>
       </c>
       <c r="C62" s="1">
         <v>6100</v>
       </c>
       <c r="D62" s="2">
-        <v>177</v>
-      </c>
-      <c r="E62" s="1">
-        <v>61</v>
-      </c>
-      <c r="F62" s="2">
-        <v>7684</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>6200</v>
+        <v>62000</v>
       </c>
       <c r="B63" s="2">
-        <v>649</v>
+        <v>24561</v>
       </c>
       <c r="C63" s="1">
         <v>6200</v>
       </c>
       <c r="D63" s="2">
-        <v>99</v>
-      </c>
-      <c r="E63" s="1">
-        <v>62</v>
-      </c>
-      <c r="F63" s="2">
-        <v>8355</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>6300</v>
+        <v>63000</v>
       </c>
       <c r="B64" s="2">
-        <v>1077</v>
+        <v>24818</v>
       </c>
       <c r="C64" s="1">
         <v>6300</v>
       </c>
       <c r="D64" s="2">
-        <v>107</v>
-      </c>
-      <c r="E64" s="1">
-        <v>63</v>
-      </c>
-      <c r="F64" s="2">
-        <v>7717</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>6400</v>
+        <v>64000</v>
       </c>
       <c r="B65" s="2">
-        <v>899</v>
+        <v>21348</v>
       </c>
       <c r="C65" s="1">
         <v>6400</v>
       </c>
       <c r="D65" s="2">
-        <v>101</v>
-      </c>
-      <c r="E65" s="1">
-        <v>64</v>
-      </c>
-      <c r="F65" s="2">
-        <v>8519</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>6500</v>
+        <v>65000</v>
       </c>
       <c r="B66" s="2">
-        <v>700</v>
+        <v>28267</v>
       </c>
       <c r="C66" s="1">
         <v>6500</v>
       </c>
       <c r="D66" s="2">
-        <v>95</v>
-      </c>
-      <c r="E66" s="1">
-        <v>65</v>
-      </c>
-      <c r="F66" s="2">
-        <v>62</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>6600</v>
+        <v>66000</v>
       </c>
       <c r="B67" s="2">
-        <v>1054</v>
+        <v>20679</v>
       </c>
       <c r="C67" s="1">
         <v>6600</v>
       </c>
       <c r="D67" s="2">
-        <v>100</v>
-      </c>
-      <c r="E67" s="1">
-        <v>66</v>
-      </c>
-      <c r="F67" s="2">
-        <v>58</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>6700</v>
+        <v>67000</v>
       </c>
       <c r="B68" s="2">
-        <v>819</v>
+        <v>21266</v>
       </c>
       <c r="C68" s="1">
         <v>6700</v>
       </c>
       <c r="D68" s="2">
-        <v>161</v>
-      </c>
-      <c r="E68" s="1">
-        <v>67</v>
-      </c>
-      <c r="F68" s="2">
-        <v>59</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>6800</v>
+        <v>68000</v>
       </c>
       <c r="B69" s="2">
-        <v>776</v>
+        <v>20752</v>
       </c>
       <c r="C69" s="1">
         <v>6800</v>
       </c>
       <c r="D69" s="2">
-        <v>289</v>
-      </c>
-      <c r="E69" s="1">
-        <v>68</v>
-      </c>
-      <c r="F69" s="2">
-        <v>57</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>6900</v>
+        <v>69000</v>
       </c>
       <c r="B70" s="2">
-        <v>750</v>
+        <v>20845</v>
       </c>
       <c r="C70" s="1">
         <v>6900</v>
       </c>
       <c r="D70" s="2">
-        <v>73</v>
-      </c>
-      <c r="E70" s="1">
-        <v>69</v>
-      </c>
-      <c r="F70" s="2">
-        <v>116</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="B71" s="2">
-        <v>961</v>
+        <v>21953</v>
       </c>
       <c r="C71" s="1">
         <v>7000</v>
       </c>
       <c r="D71" s="2">
-        <v>77</v>
-      </c>
-      <c r="E71" s="1">
-        <v>70</v>
-      </c>
-      <c r="F71" s="2">
-        <v>86</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>7100</v>
+        <v>71000</v>
       </c>
       <c r="B72" s="2">
-        <v>911</v>
+        <v>26507</v>
       </c>
       <c r="C72" s="1">
         <v>7100</v>
       </c>
       <c r="D72" s="2">
-        <v>76</v>
-      </c>
-      <c r="E72" s="1">
-        <v>71</v>
-      </c>
-      <c r="F72" s="2">
-        <v>56</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>7200</v>
+        <v>72000</v>
       </c>
       <c r="B73" s="2">
-        <v>1010</v>
+        <v>26497</v>
       </c>
       <c r="C73" s="1">
         <v>7200</v>
       </c>
       <c r="D73" s="2">
-        <v>86</v>
-      </c>
-      <c r="E73" s="1">
-        <v>72</v>
-      </c>
-      <c r="F73" s="2">
-        <v>56</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>7300</v>
+        <v>73000</v>
       </c>
       <c r="B74" s="2">
-        <v>934</v>
+        <v>27513</v>
       </c>
       <c r="C74" s="1">
         <v>7300</v>
       </c>
       <c r="D74" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="1">
-        <v>73</v>
-      </c>
-      <c r="F74" s="2">
-        <v>87</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>7400</v>
+        <v>74000</v>
       </c>
       <c r="B75" s="2">
-        <v>805</v>
+        <v>27043</v>
       </c>
       <c r="C75" s="1">
         <v>7400</v>
       </c>
       <c r="D75" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="1">
-        <v>74</v>
-      </c>
-      <c r="F75" s="2">
-        <v>85</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>7500</v>
+        <v>75000</v>
       </c>
       <c r="B76" s="2">
-        <v>816</v>
+        <v>27243</v>
       </c>
       <c r="C76" s="1">
         <v>7500</v>
       </c>
       <c r="D76" s="2">
-        <v>78</v>
-      </c>
-      <c r="E76" s="1">
-        <v>75</v>
-      </c>
-      <c r="F76" s="2">
-        <v>58</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>7600</v>
+        <v>76000</v>
       </c>
       <c r="B77" s="2">
-        <v>2290</v>
+        <v>27390</v>
       </c>
       <c r="C77" s="1">
         <v>7600</v>
       </c>
       <c r="D77" s="2">
-        <v>100</v>
-      </c>
-      <c r="E77" s="1">
-        <v>76</v>
-      </c>
-      <c r="F77" s="2">
-        <v>87</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>7700</v>
+        <v>77000</v>
       </c>
       <c r="B78" s="2">
-        <v>1773</v>
+        <v>27499</v>
       </c>
       <c r="C78" s="1">
         <v>7700</v>
       </c>
       <c r="D78" s="2">
-        <v>78</v>
-      </c>
-      <c r="E78" s="1">
-        <v>77</v>
-      </c>
-      <c r="F78" s="2">
-        <v>56</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>7800</v>
+        <v>78000</v>
       </c>
       <c r="B79" s="2">
-        <v>812</v>
+        <v>27990</v>
       </c>
       <c r="C79" s="1">
         <v>7800</v>
       </c>
       <c r="D79" s="2">
-        <v>77</v>
-      </c>
-      <c r="E79" s="1">
-        <v>78</v>
-      </c>
-      <c r="F79" s="2">
-        <v>85</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>7900</v>
+        <v>79000</v>
       </c>
       <c r="B80" s="2">
-        <v>1152</v>
+        <v>27956</v>
       </c>
       <c r="C80" s="1">
         <v>7900</v>
       </c>
       <c r="D80" s="2">
-        <v>77</v>
-      </c>
-      <c r="E80" s="1">
-        <v>79</v>
-      </c>
-      <c r="F80" s="2">
-        <v>55</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="B81" s="2">
-        <v>1087</v>
+        <v>28234</v>
       </c>
       <c r="C81" s="1">
         <v>8000</v>
       </c>
       <c r="D81" s="2">
-        <v>77</v>
-      </c>
-      <c r="E81" s="1">
-        <v>80</v>
-      </c>
-      <c r="F81" s="2">
-        <v>60</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>8100</v>
+        <v>81000</v>
       </c>
       <c r="B82" s="2">
-        <v>1702</v>
+        <v>32429</v>
       </c>
       <c r="C82" s="1">
         <v>8100</v>
       </c>
       <c r="D82" s="2">
-        <v>78</v>
-      </c>
-      <c r="E82" s="1">
-        <v>81</v>
-      </c>
-      <c r="F82" s="2">
-        <v>56</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>8200</v>
+        <v>82000</v>
       </c>
       <c r="B83" s="2">
-        <v>1073</v>
+        <v>32913</v>
       </c>
       <c r="C83" s="1">
         <v>8200</v>
       </c>
       <c r="D83" s="2">
-        <v>76</v>
-      </c>
-      <c r="E83" s="1">
-        <v>82</v>
-      </c>
-      <c r="F83" s="2">
-        <v>56</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>8300</v>
+        <v>83000</v>
       </c>
       <c r="B84" s="2">
-        <v>905</v>
+        <v>33902</v>
       </c>
       <c r="C84" s="1">
         <v>8300</v>
       </c>
       <c r="D84" s="2">
-        <v>88</v>
-      </c>
-      <c r="E84" s="1">
-        <v>83</v>
-      </c>
-      <c r="F84" s="2">
-        <v>57</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>8400</v>
+        <v>84000</v>
       </c>
       <c r="B85" s="2">
-        <v>958</v>
+        <v>31371</v>
       </c>
       <c r="C85" s="1">
         <v>8400</v>
       </c>
       <c r="D85" s="2">
-        <v>84</v>
-      </c>
-      <c r="E85" s="1">
-        <v>84</v>
-      </c>
-      <c r="F85" s="2">
-        <v>60</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>8500</v>
+        <v>85000</v>
       </c>
       <c r="B86" s="2">
-        <v>1179</v>
+        <v>31382</v>
       </c>
       <c r="C86" s="1">
         <v>8500</v>
       </c>
       <c r="D86" s="2">
-        <v>70</v>
-      </c>
-      <c r="E86" s="1">
-        <v>85</v>
-      </c>
-      <c r="F86" s="2">
-        <v>56</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>8600</v>
+        <v>86000</v>
       </c>
       <c r="B87" s="2">
-        <v>2506</v>
+        <v>31197</v>
       </c>
       <c r="C87" s="1">
         <v>8600</v>
       </c>
       <c r="D87" s="2">
-        <v>70</v>
-      </c>
-      <c r="E87" s="1">
-        <v>86</v>
-      </c>
-      <c r="F87" s="2">
-        <v>56</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>8700</v>
+        <v>87000</v>
       </c>
       <c r="B88" s="2">
-        <v>1737</v>
+        <v>31569</v>
       </c>
       <c r="C88" s="1">
         <v>8700</v>
       </c>
       <c r="D88" s="2">
-        <v>74</v>
-      </c>
-      <c r="E88" s="1">
-        <v>87</v>
-      </c>
-      <c r="F88" s="2">
-        <v>57</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>8800</v>
+        <v>88000</v>
       </c>
       <c r="B89" s="2">
-        <v>1271</v>
+        <v>31872</v>
       </c>
       <c r="C89" s="1">
         <v>8800</v>
       </c>
       <c r="D89" s="2">
-        <v>71</v>
-      </c>
-      <c r="E89" s="1">
-        <v>88</v>
-      </c>
-      <c r="F89" s="2">
-        <v>55</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>8900</v>
+        <v>89000</v>
       </c>
       <c r="B90" s="2">
-        <v>1267</v>
+        <v>33740</v>
       </c>
       <c r="C90" s="1">
         <v>8900</v>
       </c>
       <c r="D90" s="2">
-        <v>71</v>
-      </c>
-      <c r="E90" s="1">
-        <v>89</v>
-      </c>
-      <c r="F90" s="2">
-        <v>56</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="B91" s="2">
-        <v>915</v>
+        <v>34303</v>
       </c>
       <c r="C91" s="1">
         <v>9000</v>
       </c>
       <c r="D91" s="2">
-        <v>70</v>
-      </c>
-      <c r="E91" s="1">
-        <v>90</v>
-      </c>
-      <c r="F91" s="2">
-        <v>86</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>9100</v>
+        <v>91000</v>
       </c>
       <c r="B92" s="2">
-        <v>1225</v>
+        <v>42131</v>
       </c>
       <c r="C92" s="1">
         <v>9100</v>
       </c>
       <c r="D92" s="2">
-        <v>114</v>
-      </c>
-      <c r="E92" s="1">
-        <v>91</v>
-      </c>
-      <c r="F92" s="2">
-        <v>57</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>9200</v>
+        <v>92000</v>
       </c>
       <c r="B93" s="2">
-        <v>1002</v>
+        <v>41329</v>
       </c>
       <c r="C93" s="1">
         <v>9200</v>
       </c>
       <c r="D93" s="2">
-        <v>182</v>
-      </c>
-      <c r="E93" s="1">
-        <v>92</v>
-      </c>
-      <c r="F93" s="2">
-        <v>55</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>9300</v>
+        <v>93000</v>
       </c>
       <c r="B94" s="2">
-        <v>976</v>
+        <v>35067</v>
       </c>
       <c r="C94" s="1">
         <v>9300</v>
       </c>
       <c r="D94" s="2">
-        <v>207</v>
-      </c>
-      <c r="E94" s="1">
-        <v>93</v>
-      </c>
-      <c r="F94" s="2">
-        <v>85</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>9400</v>
+        <v>94000</v>
       </c>
       <c r="B95" s="2">
-        <v>1042</v>
+        <v>40041</v>
       </c>
       <c r="C95" s="1">
         <v>9400</v>
       </c>
       <c r="D95" s="2">
-        <v>408</v>
-      </c>
-      <c r="E95" s="1">
-        <v>94</v>
-      </c>
-      <c r="F95" s="2">
-        <v>85</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>9500</v>
+        <v>95000</v>
       </c>
       <c r="B96" s="2">
-        <v>1602</v>
+        <v>44710</v>
       </c>
       <c r="C96" s="1">
         <v>9500</v>
       </c>
       <c r="D96" s="2">
-        <v>294</v>
-      </c>
-      <c r="E96" s="1">
-        <v>95</v>
-      </c>
-      <c r="F96" s="2">
-        <v>56</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>9600</v>
+        <v>96000</v>
       </c>
       <c r="B97" s="2">
-        <v>2664</v>
+        <v>51149</v>
       </c>
       <c r="C97" s="1">
         <v>9600</v>
       </c>
       <c r="D97" s="2">
-        <v>2134</v>
-      </c>
-      <c r="E97" s="1">
-        <v>96</v>
-      </c>
-      <c r="F97" s="2">
-        <v>59</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>9700</v>
+        <v>97000</v>
       </c>
       <c r="B98" s="2">
-        <v>1863</v>
+        <v>55312</v>
       </c>
       <c r="C98" s="1">
         <v>9700</v>
       </c>
       <c r="D98" s="2">
-        <v>200</v>
-      </c>
-      <c r="E98" s="1">
-        <v>97</v>
-      </c>
-      <c r="F98" s="2">
-        <v>58</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>9800</v>
+        <v>98000</v>
       </c>
       <c r="B99" s="2">
-        <v>2081</v>
+        <v>52549</v>
       </c>
       <c r="C99" s="1">
         <v>9800</v>
       </c>
       <c r="D99" s="2">
-        <v>177</v>
-      </c>
-      <c r="E99" s="1">
-        <v>98</v>
-      </c>
-      <c r="F99" s="2">
-        <v>86</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>9900</v>
+        <v>99000</v>
       </c>
       <c r="B100" s="2">
-        <v>5291</v>
+        <v>36199</v>
       </c>
       <c r="C100" s="1">
         <v>9900</v>
       </c>
       <c r="D100" s="2">
-        <v>176</v>
-      </c>
-      <c r="E100" s="1">
-        <v>99</v>
-      </c>
-      <c r="F100" s="2">
-        <v>57</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B101" s="4">
-        <v>1694</v>
+        <v>40789</v>
       </c>
       <c r="C101" s="3">
         <v>10000</v>
       </c>
       <c r="D101" s="4">
-        <v>177</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
-      <c r="F101" s="4">
-        <v>63</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
